--- a/src/main/resources/シートコピー(別ワークブック)テンプレート.xlsx
+++ b/src/main/resources/シートコピー(別ワークブック)テンプレート.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingo/develop/sandbox/etc/poi-sample/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF0F5F9-44D9-E446-BA78-1E4B3E016576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214C817-18FD-6F4C-B33E-7F3FAB83BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{CE3B4EA4-D7A8-EB45-9465-8740FF99B987}"/>
   </bookViews>
   <sheets>
     <sheet name="テストシート" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -256,7 +256,269 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="double"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="double"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="double"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <u/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="7" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -592,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050EFA6-F1A0-E241-A609-6FD5E97C78C3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
@@ -655,6 +917,14 @@
     <mergeCell ref="A7:E9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A11:A13">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>A11&gt;500</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>A11&gt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{C3FAB175-8777-0E4D-B35E-607ABBAD3D8F}"/>
   </hyperlinks>
